--- a/biology/Zoologie/Hespérie_mauresque/Hespérie_mauresque.xlsx
+++ b/biology/Zoologie/Hespérie_mauresque/Hespérie_mauresque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_mauresque</t>
+          <t>Hespérie_mauresque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muschampia leuzeae
 L’Hespérie mauresque (Muschampia leuzeae) est une espèce d'insectes lépidoptères (papillons) qui appartient à la famille des Hesperiidae, à la sous-famille des Pyrginae et au genre Muschampia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_mauresque</t>
+          <t>Hespérie_mauresque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muschampia leuzeae a été décrit par Charles Oberthür en 1881 sous le nom initial de Syrichthus leuzeae[1].
-Noms vernaculaires
-L'Hespérie mauresque se nomme Algerian Grizzled Skipper en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muschampia leuzeae a été décrit par Charles Oberthür en 1881 sous le nom initial de Syrichthus leuzeae.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_mauresque</t>
+          <t>Hespérie_mauresque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie mauresque est un petit papillon au dessus de couleur gris vert, avec une bordure blanche entrecoupée au bord externe. L'ornementation consiste en une ligne submarginale de points blancs et des taches blanches en alignées[2].
-Le revers est gris très clair avec la même ornementation blanche.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie mauresque se nomme Algerian Grizzled Skipper en anglais.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_mauresque</t>
+          <t>Hespérie_mauresque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie mauresque vole en une génération entre mi-mai et fin juillet[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Phlomis[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie mauresque est un petit papillon au dessus de couleur gris vert, avec une bordure blanche entrecoupée au bord externe. L'ornementation consiste en une ligne submarginale de points blancs et des taches blanches en alignées.
+Le revers est gris très clair avec la même ornementation blanche.
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_mauresque</t>
+          <t>Hespérie_mauresque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,18 +625,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie mauresque vole en une génération entre mi-mai et fin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_mauresque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_mauresque</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Phlomis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_mauresque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_mauresque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie mauresque est présente en Algérie[1],[2].
-Biotope
-L'Hespérie mauresque réside dans les prairies sèches fleuries[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie mauresque est présente en Algérie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_mauresque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_mauresque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie mauresque réside dans les prairies sèches fleuries.
 Sur les autres projets Wikimedia :
 Hespérie mauresque, sur Wikimedia CommonsHespérie mauresque, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_mauresque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_mauresque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
